--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/19_Bolu_2021.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/19_Bolu_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0732A9FF-A6BB-44E2-87F4-B1EAD38E347D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1BD825E-30C7-4EAE-A479-44B76B04D5C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="692" xr2:uid="{1EBDD60A-82AE-466E-975D-BE661ABB0716}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="692" xr2:uid="{8537B047-0F58-43BF-A11A-6250DE794426}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -954,13 +954,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{A2C4BB2C-777E-46E7-9153-93FA7EC2B8DB}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{AAB38D32-C1F8-4025-8048-29C89CB8AFCD}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{F34A1BC2-C276-4F0E-AD56-61CB8643551B}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{66EF3D11-B337-458E-961E-CFBAEACD198F}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{7C657095-22E8-4909-A4C1-B932A7699CF4}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{C3084F35-8298-4494-BBDA-8DBAE7A47870}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{7BD41EC6-C215-4155-9E07-B465881DDA64}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{10A482E9-44E0-47F7-AFE8-1A1A045ECA31}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{7BA97AD0-044C-4EAE-A66F-26518E88CAF9}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{AE463F1C-AC91-4E96-8660-69D90DCD92B3}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{70E0CA2A-F59B-43E3-97E8-D6704BC544CA}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{A496648D-0E6F-4ED9-A694-FBEAE0B9A99B}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{0D86D105-A118-42E3-B8ED-5E9C0339B21E}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{3E1F0105-B244-4020-B883-AFD17B64ADCB}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1330,7 +1330,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41803073-0D40-4910-80F6-2AF34DFE2DBC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE0E5B81-7DAB-43B5-A85F-89B769DDD4EE}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2593,18 +2593,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5260CB8E-B3B7-48A0-BD5A-0EBA9CAE14DB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7304665E-89BA-4810-8EBD-B3E1CD5B8CCF}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{76E3BB60-7B73-43E6-8BAF-F96AAD97A346}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{95562CC7-D1F7-4694-9496-66E24594A9E5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{792172E2-CC42-4E97-8B85-2AF693CEE81C}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{EBF3FBA3-55F2-44C3-94C0-878EB8F6559C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{ECCED95C-5F06-451C-8313-B825750F61E9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FF4244D1-D11D-4210-9833-646BD92B9E44}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FE011BC8-5B8B-46CE-B837-58F042630969}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{AEACAEAE-DC62-48AD-ACEC-7EDE5AF41D2D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C34B20EB-0400-4D9A-97A7-6D1537A35FCB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2920B581-2556-4B73-8701-9AD46787D7A7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{89D131A0-9859-42A0-B1B4-D69286180A46}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{74792C8D-D0D8-4345-A6BE-1B3062B7F561}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4390397E-1916-4F24-BD87-868DF6B745AF}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E339C6CE-08E2-4D34-BCF5-84AE2B5F2411}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8ACE31A9-F70A-4E41-8FC2-448307B67FFE}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{6AC29490-6DE5-49E4-AE38-58E172F4128A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{798459BB-D54C-4357-8255-D12A15E1A6C0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{261DC481-40B4-4A65-8E8B-FFBF0E122319}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CF8CFA66-04B1-4505-8F27-ABD4240ED449}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{6A966C48-3FD4-4A30-830D-29C42C7482F4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2744BE81-31B3-4B96-A367-C3E6783B8AC5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{74411740-0F97-438A-AA54-F094C48C0498}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2617,7 +2617,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{523A036B-2B46-4B27-9F8F-639A5211360C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DF6CA35-53AF-4C8E-AA0B-315514BD42FB}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -3851,18 +3851,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6AB8275A-BF47-43F1-83D1-47B8951EB720}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5F416FA4-681D-4B47-BA2E-36C4FEBDE222}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D6604487-A9D6-4FCD-8B97-AA27A256767C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{55B91534-5538-46A4-8B81-6225C766CC80}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A525974C-4CD0-4EE0-8AF3-FFB5DDF0ACF5}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E1D7568E-D716-4EF8-8707-C84B4B95C900}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FDD5BDD4-FE90-49CD-BF76-57E05E799C38}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DBB7C04E-AF73-4D94-B049-A7510062AD6B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3CCDA07F-D621-4606-BD0C-A477A4AA6710}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{ED76AFA7-0876-4D3B-A5A1-A79E93B0FC5E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5DA9411D-9610-42CF-9A0E-C2730E14F6CD}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{49612AEF-9735-4AAA-A4CF-AEA7911DEA20}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{318A7E96-D3D4-47C3-B32D-06D6CA8D656E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BF472FA5-67CA-41F7-9636-73F4DBF57D10}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CB6A17B6-5AEF-4780-8781-D0CC0F02D53F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{89F58EA3-E5D6-4113-962F-069082EEC12C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E3945118-70A3-42D5-A93A-52B93DB5CFFA}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3A491081-5CF0-4ED2-8E44-63FC6D0DCE6C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5B4F602F-664A-4FF6-B04E-D71EDB66F894}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{09B2C3A3-9903-4B89-B3BC-0008694E551B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{41BA5C1C-7692-4ACC-8A1E-DB8C8CB06BD1}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{20AA73E2-C8D7-444C-866A-1370D369EA75}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C34F77AC-7BF1-4F2D-90AD-F98671D8980E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E7D0E55D-2E1F-421E-87F5-48C8A810D4D6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3875,7 +3875,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0BC7C06-E296-47D5-A126-E3AB3E4AE17E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{797E16A4-AA67-492A-B66E-538D25759ACE}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -5109,18 +5109,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2AF3601D-A576-4481-8ADB-11DEA78A3891}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3997CB37-76DA-429B-AB2E-00F0ABB1EA72}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F365A3E1-A2A3-49B9-BEED-7205DA6345EB}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{52909423-CE6F-4B4F-A0E7-3DE1DBF0C8C1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{68B5FD89-A239-4BF0-8443-8539B6E2742A}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{65DFD746-263C-4BED-B01C-DC0E554B0F45}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EEA11A7A-A895-47B4-8A62-225FBCB25676}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C0E54A50-FD23-4B2A-839D-A764CE352E55}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D75CE55C-9376-44EB-990A-FF506F58574F}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{DE5DC1BE-0B19-4A03-AD83-F07BBAD8E1A8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6FAD2BDA-E2CD-498A-BC67-71EE21473241}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F3DA4D65-8C9F-4144-86CA-97D9D914BB71}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4D7371E7-6272-4994-BCF5-6D01E314885D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C720D464-17C3-4D54-85BA-C19F9973CB22}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{973C59E3-D84B-4E5E-B126-F72119148C84}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B69A0E9D-9FEC-425F-B7E4-8B1558039FBD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EB3593C4-A461-4796-9435-06DA4F62A1FE}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{AEED2454-9984-4E0C-BC86-D7FDF2266CC1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4DB39E5D-CB48-4511-BD46-B9F9F9A43F40}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{73B853FB-1807-4296-9B46-801E5133DC51}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{91B725E1-47EC-4CE2-AE8D-C38036259163}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{28B1AD30-5EFF-4085-9117-E16CC7A7DC17}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8CDD3029-BE00-435F-B5E7-228FE11E8167}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D39836A9-E488-4716-ABD3-CD457087344B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5133,7 +5133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0CF250A-FD96-4541-B109-0D7C0BF99BDC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A45B71F-5B71-482C-B692-27EC236B7C45}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -6363,18 +6363,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{71E4DF66-AFF0-488D-B0E8-97A57FD456FF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{412CC2F8-BF75-4E63-83CA-B58338B00384}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DB50BC10-6A18-4A59-A271-67BAE42669D4}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D4295283-3F07-4119-B72C-EF96EF5E988A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{87824B9C-300E-4DB5-B5F6-8F5A3DCB0C26}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A9172D28-628A-486B-B1D7-EA23AD24CBF7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{03675AE0-2CED-4CE3-93A9-915453D63EC0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F566ACDE-135A-44CF-AA23-DBEC137EE353}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A6CA6C73-095E-40B9-BFD9-7C97CC75BCCC}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{299305D9-C559-4D4D-98A1-4F2918D60C41}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3A556CA1-49EE-4318-A244-CAE7DBAEDBA1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{36314E0F-118A-423C-9B59-151E2494AFFB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{14F6C1EE-E14F-4107-9700-FC9ADBC9DBA7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{35430E21-1036-4690-9263-1E5CF9E7FBF2}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{164C52C2-165D-45B2-A165-4A21CFFB597A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{17295603-5EAA-4630-8D7F-EE5C27AE1489}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8B737FD6-F296-4C49-83A5-28E32C27B4FC}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3EB53F30-D865-4810-AA27-7C4FDD78C19E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5F0974D8-BAF1-4539-99CA-B70C6C57F3C5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CB0030E1-C6E8-457B-B863-39EF50B2E22E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E1A92F15-76ED-4A4F-A53A-DD14E13F8859}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{AACC5902-29A1-4648-9C96-724EE6CC338F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E42FC6AD-83AA-4DDC-A6A7-0A76A26088CC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C466C6AC-BB89-4C19-92EC-B5D4C2A83E4E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6387,7 +6387,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F80A727B-CCD2-4E90-BA53-919B27176B7B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE66D4B-418B-4382-9914-E3E95C0C1CD4}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7652,18 +7652,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7E5270E1-E1BE-43CD-812A-EC57D5B90ADF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{99D9ED36-F671-4BB4-A923-417AF5DF64EA}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8AFF8FD3-437E-48D5-97DD-99FC28733F92}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{23FCEB05-09D2-40D5-82B1-BD2BCA242387}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{51832F5C-207B-4131-A278-4FEFDFF88C6D}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{20CCC852-5D37-4DFC-83AF-AE0D29AF7A75}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8A6A3AA8-FA4D-417D-B398-B05914ADB736}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{573E9893-A2D5-4CF4-B9D8-E93402AF5291}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CFD41FC7-6D91-4AAA-BDB3-07449D70E417}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{FC0D4E1E-84DD-44BF-8C9C-81283BD278E6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{10AF63C5-0F24-44B3-B9D1-65AE7B98A416}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{96090EE1-5D25-43BC-905C-6823A7844CE0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D71AFF3D-1747-4D8A-8AD4-C5CE94921214}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E9285928-CC05-41A3-A07B-1DE04CC1BEB6}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FDF46687-4261-423C-8CCB-0FF66D27DE42}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C7C0E754-3923-41E0-84C0-9674736229EE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B2250B3F-F128-4103-9DAE-4C54972139EB}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{7158B755-1C82-4F71-BE30-8734CA72F3DB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{50AB1D41-0241-4CD4-B083-70D8729E93D3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F4FD22AB-6883-42FE-8096-0234C5E055A2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9CF51FC1-03BB-4851-849E-C7767F9D3160}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{3A0B221B-449A-4008-A9DC-F8A73DC89F48}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AE86CD60-639F-46D7-B138-A607809427EE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{284BF146-DBC8-4088-92B1-FE7A6C316B8C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7676,7 +7676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A18A62-88C5-4836-9662-46E7EE1556B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0863D7F0-2EDA-45BC-A9E0-A486EF45A36F}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8941,18 +8941,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{18D32EA4-5B80-4FD3-8FB1-4BAD11D47F83}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8A3BADFA-AA09-4657-A878-07A139C5AA7D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F74CFEBE-C5AB-4B12-BF1A-42199BC0B98F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{23426D6B-1BAA-4310-A318-2EDA0622D0D8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{17C6CA40-A4CB-4574-879F-8E5D4D3AF124}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3110E227-3135-40E4-9C2C-F0419D00FA48}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AEE822B7-991E-4681-A53B-7345FF89B876}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B1070A40-E1A9-419F-940B-8ADCD0351878}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9D8547B5-4ACB-48E4-8B07-172F59BF4130}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{1AAC38D8-3BD4-483C-BC99-42786F09B129}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{63C1DDC2-D436-46F5-8733-9784F215208D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C3FA5A2C-A008-4028-A838-A7BA065D0E72}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D0E17E02-94BD-4061-82E4-1CF6527D2DD3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3C593D61-5507-4748-BFB8-FA22DFD86A29}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0624F79E-55FE-4F34-9527-C150034B2E67}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C982E326-1E98-46B8-B6A5-10BE73472A5D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{50C69978-B572-44E1-B6BF-2AEE5438FA70}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5D9CECC1-6B04-4748-8E70-5A42CCE0E345}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3D42B8BC-824E-4CAE-AA8C-3648F96DFBEA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{88314651-AF1A-4917-8E6C-10649CA66332}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DE0A0071-B7EE-4EB5-AD88-F4A484EE3F1C}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{10F417F7-42A0-4E29-BB3A-8BFFBF02C6E1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EDD2D2FA-895D-4CA8-AD07-6E1F3A6098C8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E3D00D32-17EF-4830-B7BB-C81D699CE59B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8965,7 +8965,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22A5727-E24B-451B-A7E1-85F49945F489}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2389E20F-3E8F-400C-ACCB-FC571BB3743D}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10230,18 +10230,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9660C76E-243C-4BDA-8CC0-6963ED2881F6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F88AB496-52F8-44B1-9CD6-5F361504A24D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3FEAD587-82EE-4A6C-B3D7-95E9D0E90F53}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{56A9F6F0-D922-48CE-8A1B-914DD0DCBD1A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BE06E13D-41BC-4771-BB1D-4567296767E6}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5779CEE0-AFED-411B-A155-4C73B85559EB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1C0E6E5A-0091-4D9C-8D28-0010070A063E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E91C0F7D-AA18-4FEA-81F9-ED4BC49B7873}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{61932661-E27B-42BD-8633-0526048EB9C7}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{491B98A9-F973-4159-A7D4-AF9A4329F809}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5F132351-4EDD-4F00-8788-315884D69254}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{58C47D85-CC98-4326-96B6-70A95965FA33}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F180BA73-4746-4AAC-BEC5-D8A65F01968C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F4FBD87A-0B5C-410F-8620-D3036E9DA814}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BC38058C-EE65-43EF-9D7A-55F6862A90A0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AD85C51B-0E85-40F5-AC34-586C49315A59}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{30846EA0-EC6B-4C32-9F03-EFF5CF28079F}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{92EF2648-1C66-485E-87F0-0535FF7928D5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A48EF793-6124-44B8-AE1A-84964B567117}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{41A481BC-D209-4694-8D00-3E5998A39BF9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EC28F62E-9293-4B50-AD57-F0AF7EB7E34B}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{BBD0D865-7586-4F60-A2F3-ED9342637C88}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7F26C017-AD08-4AF9-8E69-AB8725D966F3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5C6B7D90-7F1A-44FC-A3D4-32DCC8B55E28}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10254,7 +10254,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA24C19-2CA9-46C4-8382-6B34C056BF2E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39720E37-E60A-4439-9733-7F7D2FA6DB49}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11519,18 +11519,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D90761C4-1B5E-4B89-AC1F-598E2CEB12FF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A2F9B367-BD89-4FB9-9746-30AAF260B709}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{EF4BF9FF-86D2-41FA-8D7C-6C8C93E91483}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1EF0CAC6-AB1B-42A9-AC33-8E0619401BAB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7F58D7E8-2C4F-43A0-9598-B5D26123D8B2}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{608FCB6F-26E2-4211-AFF5-3A1D8C586388}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AD9D395E-6252-4498-ADD7-A9B642682694}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{28A7448D-534E-4DD3-974A-D979CD4A6C05}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CD7CE951-F79B-4D97-9C63-827857C11018}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{8532CF0C-51BC-4423-A832-45D9244B4F59}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E9D3C0CC-892B-49D9-B05C-69B768F28F90}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{42406987-9D77-43B5-804A-83AC98BE94AB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BF236348-A358-4306-AD47-8AC287952373}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FE9D9804-154F-45A7-A73A-C9C302887BDE}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CDE3F4F3-28E0-4020-80CD-0A585AE5CF83}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CBE1F1A1-5EE1-49C1-8B85-499D71D00CA7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B851ECF6-AC25-4901-B5D6-1F5F4C9F3FBA}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F964C923-39C1-4DE0-BDAA-9035730BDA48}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3F4AB645-7909-4671-837D-22C569031BF5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4178AF0F-A9AD-4DD5-87DD-EB86D4A6C393}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{813B2088-7441-4B2E-8120-DF6D460C439F}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{4EBA34D4-BA94-4FFC-BAC1-91D60857E816}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{08B1EE19-642E-4AAC-8234-B385477158AF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{61D90E8E-678B-42BE-9D7C-C70E4F9EA9F0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11543,7 +11543,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD05986-75B7-4BFE-B0D8-D691B503F983}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEBC11F7-5A6C-47AA-9EC9-FFFE6602C312}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -12801,18 +12801,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F241D7F3-DEBE-421D-88CD-8C0C336CFA0B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5EEEC698-2911-470D-8F49-1D3075BB2A98}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{486147BA-2849-44B4-AB5F-5E502E70AEB4}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{40898A38-7EA8-41B8-AD5F-6EC2FE84BCEA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{613E94A6-F179-42AA-A45D-2A5AABD2F0E6}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{4EB95DF3-3656-41DC-AEFB-0C4D0D9C0F6B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AB5B484D-A6D6-4C2B-A6C0-6691B5EE4325}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9CD75772-58DA-45A2-BB74-D1C69FF0474A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{15738299-D971-45CA-820A-088C35D8C477}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{6A98897E-DE8E-41C7-880F-F33042F1CDC1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B2BB065A-D987-456F-8A78-92327902F65A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{58780AFC-6F47-4B03-A51F-9C0F69F26CDC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1B17AA64-5F43-4D06-B7CA-5C354CA43739}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3E1AEAEF-6790-4BDB-AAA6-C7874E4C94B1}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{57819871-1947-4CBC-8A6C-1DADC5B52ED9}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{80C2B232-B1E3-41A5-9482-E13E9F8B7D95}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{074C65F5-9932-4E28-A5C5-C55E298A9B4D}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1E3D648C-23AD-470C-94E0-61919FC79062}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{38B52CD2-B1F3-4EE3-87A6-4C21514338E8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D1581F7B-7689-4AE5-8EEB-0F4E2DC40BA9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{889F9844-7983-45DB-9F18-80DD45045676}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{5850BB46-5D0C-42B9-9E1C-6D300BDFB5C7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3E32EB0B-A224-450D-9202-6D60A670F0BD}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5F253C6C-3665-4910-898E-6621B7A61E12}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12825,7 +12825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC4907DF-675C-4F96-848F-55D5A8F9BD5C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6009414B-71FE-442B-8580-55251DF7B68F}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -14067,18 +14067,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{75B29777-05F7-4F5D-B58F-0E799DCEA025}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6DC5F8CE-A37E-43B7-B3E0-80DB97859386}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7A2792CC-E3C7-4586-BD91-BA68D0B1A167}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{68138403-0B0F-465A-A036-5BE1A86B87B3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EFCBB9C5-732C-4180-9553-8882CADD46CC}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8FA1EDA9-B70A-43E0-B8B3-0E8E5423A45B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5E1A4DFE-78CC-48E8-9E27-C42C9548AAAE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2C2C299A-78F4-4F47-9212-74A635A58069}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{502E1A8D-81F6-464E-8332-500C8E936D8E}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{61CD2491-78E8-40D5-8F95-0CBED9C3F02E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9276C796-6A70-4C7F-8E7B-907DA45613E8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{877856B2-97BC-478C-AB48-62501E53F9B2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E79ADEAC-010B-429E-867A-DF940DA98BC7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C1FB573B-04C2-421D-A901-30D64C2AE09E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4A92FE05-53D6-45BF-937C-11FA5820F050}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E5F1B205-E8DC-478B-B1EA-CA7D531CC313}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5C26A541-06D0-447A-A2B1-03DC06C12B35}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E1A0F0FA-98FB-464D-9D65-1B9C13B9B7DE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E62668EE-7D8B-411F-815D-29694F998366}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F535E105-68A3-4436-8199-D73B62ACAF35}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3B2EEB03-A588-4CA0-9A77-12DAD2437EB8}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{4067A9E7-B7D6-4ADB-B819-E28E49DEE42C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A5B7E850-84B6-4EBA-A043-2D1AFC65A668}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9FB0219D-BFF4-48D0-BE1A-57019355B93F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14091,7 +14091,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F45314C1-E540-439C-AA9F-676BF05A366B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DEADA33-EB4C-4001-9AF8-DA34ABEA73C7}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -15333,18 +15333,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B361FF58-430A-4E72-A78A-D6A4F557A829}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0B15F0F1-F88F-453B-BB2F-58BA5DFB5D5F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9A430A05-2FD3-4532-97AB-4A22EF67701E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BA75511F-622E-4FD8-A203-E89BD42ED0C3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B5EB2232-9C29-45BF-94E9-15085BCC7A9D}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0DFEA438-3DAB-4BD4-A433-01C8A305A93E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{89824A83-DC20-4335-BB63-8DDA053B10DB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D8F039E6-CAF2-4009-AB65-82AF45511E5D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{23E4FB5A-4EDE-417B-B3BA-39EBB2824D8A}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{4D834504-CB4E-4569-87DD-A24164CF838F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D28B9697-C3D3-4611-BF04-4D1816452C39}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5079E640-39F6-4161-BEBB-3FFA4F50EE40}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CA275B7F-A3F6-4246-872F-0C63DD77D6DB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4690F4B2-0012-42AB-9C83-163C829E367E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{70A49B4E-E310-4F43-A96C-A8D494222936}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B850BE4E-BFDF-40B5-90D6-58C5AECDD88F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CC3C6622-A273-4971-B0A2-9F3B338CA84B}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{15B721C4-A984-45D1-9E86-7E108B9E773E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{74E0561B-CC35-41C3-9F8C-87ABA5E59020}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C5D02016-0D12-4892-8580-8D2D412FCC1C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D7C98D5F-9163-4A15-9DB6-5B98AC07BF02}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{5E88AF92-FA1C-471D-B16E-5E505EF47423}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{ACD78A0B-8B73-4268-9BBA-B0A994166D2D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DA47A283-B237-44A9-9360-CD96BEED1ED9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15357,7 +15357,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB9FAE64-8213-424A-9AE6-CA89366D60CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CA90720-5D9A-456D-B008-A515A24AF612}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -16599,18 +16599,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2D1049DB-AF48-42C9-8F59-79E23D1DB394}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{84F03E31-69D6-490A-8F59-5CC0A06C6E3D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{05CF8962-9BD6-4BE2-A923-8EC8B9C06FA0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5B7028C4-3053-4DE1-AA43-6A7696FF0B59}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8A40191E-A4E3-434D-A449-033B6C913CB7}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{58430C23-5AB3-49C3-B5BF-DBF2101820DC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C8E7515F-9A8B-4274-AC7E-6D4879AB25F8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E0EE612E-461F-4BA8-90E8-E7806EB0B88A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{661D11C3-DBE5-4269-8E35-0A3A139863BD}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{DDCBB686-0039-4A4F-A530-82AC538E7899}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{536C7F07-3A45-4CEB-95DA-9928A9B8FAC5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3D0E7AE0-B8F9-43E0-A3D2-1B6DD1DEC896}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A7AE6BD9-3548-4A11-BC1E-B5EE84CAF556}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F3AA927F-F253-421E-B65A-40B99BEF4B15}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{065DC839-BA77-47EC-82C1-3F95BD08F74F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B4D1D896-D827-4C06-8988-6D5EB1ABDB5B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{977168BA-0348-41A2-8996-D73100ADBFA0}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{46D9491A-11C8-4E50-ADA0-42F3E2150A61}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B3B4F6C4-8445-4EEE-A4E1-F341DF30536A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{86FBF889-87A1-4B9E-A530-F97B112B080C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8ED7DFA7-942E-4606-88CA-CC9A560D005F}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{B27BC3BB-A202-4BB8-A740-EA527520DF68}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F527CF1D-AA99-44A4-9A77-797E9B1623C3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FF7713D2-30A9-46D4-99FD-0D92706977F0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
